--- a/Agiledoc.xlsx
+++ b/Agiledoc.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MOUKTHIKA\OneDrive\Desktop\MV\-AI-Powered-Knowledge-Engine-for-Smart-Support-and-Ticket-Resolution\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MOUKTHIKA\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7541B821-41C2-4722-9AA5-75F0D9D3FC34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A781222-2F74-47C0-B01E-3B7AF5902978}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{793793EB-A2F4-49DF-BA63-A99ADAF16820}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" activeTab="1" xr2:uid="{793793EB-A2F4-49DF-BA63-A99ADAF16820}"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="136">
   <si>
     <t>Planned Sprint</t>
   </si>
@@ -442,6 +442,9 @@
   </si>
   <si>
     <t>Moukthika</t>
+  </si>
+  <si>
+    <t>Sept 28th</t>
   </si>
 </sst>
 </file>
@@ -557,7 +560,7 @@
     <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -594,69 +597,246 @@
   </cellStyles>
   <dxfs count="38">
     <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -684,246 +864,69 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="7" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="7" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="7" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="7" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="7" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -939,66 +942,66 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{A290A970-A4E9-4B1E-9781-D497A435539C}" name="Table4" displayName="Table4" ref="A1:H12" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1" headerRowCellStyle="60% - Accent1" dataCellStyle="60% - Accent1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{A290A970-A4E9-4B1E-9781-D497A435539C}" name="Table4" displayName="Table4" ref="A1:H12" totalsRowShown="0" headerRowDxfId="37" dataDxfId="36" headerRowCellStyle="60% - Accent1" dataCellStyle="60% - Accent1">
   <autoFilter ref="A1:H12" xr:uid="{A290A970-A4E9-4B1E-9781-D497A435539C}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{A7004FC1-0A7B-497B-B874-DDD8020A7668}" name="Planned Sprint" dataDxfId="9" dataCellStyle="60% - Accent1"/>
-    <tableColumn id="2" xr3:uid="{BE44C4A7-4418-4095-8B9E-054CBB7F0963}" name="Actual Sprint" dataDxfId="8" dataCellStyle="60% - Accent1"/>
-    <tableColumn id="3" xr3:uid="{21B3345A-A7AF-4D7D-BE1B-F99CBA5485B3}" name="US ID" dataDxfId="7" dataCellStyle="60% - Accent1"/>
-    <tableColumn id="4" xr3:uid="{38D74A14-E155-40B6-B0DD-40239F81B0E5}" name="User Story Description" dataDxfId="6" dataCellStyle="60% - Accent1"/>
-    <tableColumn id="5" xr3:uid="{3E485081-8A70-4615-A5EA-F31B04A13DD4}" name="MoSCoW" dataDxfId="5" dataCellStyle="60% - Accent1"/>
-    <tableColumn id="6" xr3:uid="{2E39E611-D0F1-4FA5-9779-57C31C070F2F}" name="Dependency" dataDxfId="4" dataCellStyle="60% - Accent1"/>
-    <tableColumn id="7" xr3:uid="{2C37B554-5FA1-4A71-8F95-FAB6456381D3}" name="Assignee" dataDxfId="3" dataCellStyle="60% - Accent1"/>
-    <tableColumn id="8" xr3:uid="{5DFB3EC5-1C46-462C-B1A8-BF24A52EAFA7}" name="Status" dataDxfId="2" dataCellStyle="60% - Accent1"/>
+    <tableColumn id="1" xr3:uid="{A7004FC1-0A7B-497B-B874-DDD8020A7668}" name="Planned Sprint" dataDxfId="35" dataCellStyle="60% - Accent1"/>
+    <tableColumn id="2" xr3:uid="{BE44C4A7-4418-4095-8B9E-054CBB7F0963}" name="Actual Sprint" dataDxfId="34" dataCellStyle="60% - Accent1"/>
+    <tableColumn id="3" xr3:uid="{21B3345A-A7AF-4D7D-BE1B-F99CBA5485B3}" name="US ID" dataDxfId="33" dataCellStyle="60% - Accent1"/>
+    <tableColumn id="4" xr3:uid="{38D74A14-E155-40B6-B0DD-40239F81B0E5}" name="User Story Description" dataDxfId="32" dataCellStyle="60% - Accent1"/>
+    <tableColumn id="5" xr3:uid="{3E485081-8A70-4615-A5EA-F31B04A13DD4}" name="MoSCoW" dataDxfId="31" dataCellStyle="60% - Accent1"/>
+    <tableColumn id="6" xr3:uid="{2E39E611-D0F1-4FA5-9779-57C31C070F2F}" name="Dependency" dataDxfId="30" dataCellStyle="60% - Accent1"/>
+    <tableColumn id="7" xr3:uid="{2C37B554-5FA1-4A71-8F95-FAB6456381D3}" name="Assignee" dataDxfId="29" dataCellStyle="60% - Accent1"/>
+    <tableColumn id="8" xr3:uid="{5DFB3EC5-1C46-462C-B1A8-BF24A52EAFA7}" name="Status" dataDxfId="28" dataCellStyle="60% - Accent1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{9E061317-F190-4C2F-9367-80589C659514}" name="Table3" displayName="Table3" ref="A1:I12" totalsRowShown="0" headerRowDxfId="10" dataDxfId="11" headerRowCellStyle="60% - Accent6" dataCellStyle="60% - Accent6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{9E061317-F190-4C2F-9367-80589C659514}" name="Table3" displayName="Table3" ref="A1:I12" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26" headerRowCellStyle="60% - Accent6" dataCellStyle="60% - Accent6">
   <autoFilter ref="A1:I12" xr:uid="{9E061317-F190-4C2F-9367-80589C659514}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{65626B3F-0BF2-4F4F-BC93-29F4B590A97E}" name="US ID" dataDxfId="20" dataCellStyle="60% - Accent6"/>
-    <tableColumn id="2" xr3:uid="{A91DB8EB-9A05-4AED-AE12-737E1CE9B2A1}" name="Task ID" dataDxfId="19" dataCellStyle="60% - Accent6"/>
-    <tableColumn id="3" xr3:uid="{EFD20F5F-0E5E-45AB-AB70-5AC5DB86155D}" name="Task Description" dataDxfId="18" dataCellStyle="60% - Accent6"/>
-    <tableColumn id="4" xr3:uid="{8FD82BF0-DB15-4E95-B0AB-5CB744BF7CEE}" name="Task Start Date" dataDxfId="17" dataCellStyle="60% - Accent6"/>
-    <tableColumn id="5" xr3:uid="{F3778782-7F5F-46E2-9EDF-E6E2B27361A8}" name="Task Completion Date" dataDxfId="16" dataCellStyle="60% - Accent6"/>
-    <tableColumn id="6" xr3:uid="{2BCF0ED3-BD23-4406-9C85-F413E1AB9D66}" name="Team Member" dataDxfId="15" dataCellStyle="60% - Accent6"/>
-    <tableColumn id="7" xr3:uid="{9FCCE767-7FB8-4DA5-9195-A5CFE6FFF1FD}" name="Activity" dataDxfId="14" dataCellStyle="60% - Accent6"/>
-    <tableColumn id="8" xr3:uid="{BFFC8B34-C64D-4DAA-A43D-1903FE151422}" name="Status" dataDxfId="13" dataCellStyle="60% - Accent6"/>
-    <tableColumn id="9" xr3:uid="{48B7C9BA-7303-4B6B-87A4-905FB7AE3BF4}" name="Original Estimate (hours)" dataDxfId="12" dataCellStyle="60% - Accent6"/>
+    <tableColumn id="1" xr3:uid="{65626B3F-0BF2-4F4F-BC93-29F4B590A97E}" name="US ID" dataDxfId="25" dataCellStyle="60% - Accent6"/>
+    <tableColumn id="2" xr3:uid="{A91DB8EB-9A05-4AED-AE12-737E1CE9B2A1}" name="Task ID" dataDxfId="24" dataCellStyle="60% - Accent6"/>
+    <tableColumn id="3" xr3:uid="{EFD20F5F-0E5E-45AB-AB70-5AC5DB86155D}" name="Task Description" dataDxfId="23" dataCellStyle="60% - Accent6"/>
+    <tableColumn id="4" xr3:uid="{8FD82BF0-DB15-4E95-B0AB-5CB744BF7CEE}" name="Task Start Date" dataDxfId="22" dataCellStyle="60% - Accent6"/>
+    <tableColumn id="5" xr3:uid="{F3778782-7F5F-46E2-9EDF-E6E2B27361A8}" name="Task Completion Date" dataDxfId="21" dataCellStyle="60% - Accent6"/>
+    <tableColumn id="6" xr3:uid="{2BCF0ED3-BD23-4406-9C85-F413E1AB9D66}" name="Team Member" dataDxfId="20" dataCellStyle="60% - Accent6"/>
+    <tableColumn id="7" xr3:uid="{9FCCE767-7FB8-4DA5-9195-A5CFE6FFF1FD}" name="Activity" dataDxfId="19" dataCellStyle="60% - Accent6"/>
+    <tableColumn id="8" xr3:uid="{BFFC8B34-C64D-4DAA-A43D-1903FE151422}" name="Status" dataDxfId="18" dataCellStyle="60% - Accent6"/>
+    <tableColumn id="9" xr3:uid="{48B7C9BA-7303-4B6B-87A4-905FB7AE3BF4}" name="Original Estimate (hours)" dataDxfId="17" dataCellStyle="60% - Accent6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CC7061B9-473F-4DB2-BEA9-8FF7D506033A}" name="Table2" displayName="Table2" ref="A1:D6" totalsRowShown="0" headerRowDxfId="21" dataDxfId="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CC7061B9-473F-4DB2-BEA9-8FF7D506033A}" name="Table2" displayName="Table2" ref="A1:D6" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
   <autoFilter ref="A1:D6" xr:uid="{CC7061B9-473F-4DB2-BEA9-8FF7D506033A}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{A3DC2525-0036-45DA-B874-8D051C884E37}" name="Sprint" dataDxfId="26"/>
-    <tableColumn id="2" xr3:uid="{B38D9940-D1A6-4687-B129-AC15B7F8BBA2}" name="Day" dataDxfId="25"/>
-    <tableColumn id="3" xr3:uid="{7FC5F283-0AB8-4624-A186-30DC1671B19E}" name="Impediments" dataDxfId="24"/>
-    <tableColumn id="4" xr3:uid="{EEC32298-88D7-49B8-AA56-0BCB54E8B962}" name="Action Taken" dataDxfId="23"/>
+    <tableColumn id="1" xr3:uid="{A3DC2525-0036-45DA-B874-8D051C884E37}" name="Sprint" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{B38D9940-D1A6-4687-B129-AC15B7F8BBA2}" name="Day" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{7FC5F283-0AB8-4624-A186-30DC1671B19E}" name="Impediments" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{EEC32298-88D7-49B8-AA56-0BCB54E8B962}" name="Action Taken" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A8A58EC8-8619-412F-9A20-4A8F0D4D47CC}" name="Table1" displayName="Table1" ref="A1:I5" totalsRowShown="0" headerRowDxfId="27" dataDxfId="28">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A8A58EC8-8619-412F-9A20-4A8F0D4D47CC}" name="Table1" displayName="Table1" ref="A1:I5" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
   <autoFilter ref="A1:I5" xr:uid="{A8A58EC8-8619-412F-9A20-4A8F0D4D47CC}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{5067D2B2-12AA-405A-933B-6C20894EBC6A}" name="SL" dataDxfId="37"/>
-    <tableColumn id="2" xr3:uid="{3CF8F107-5072-4DD1-B8D5-E78DCE2BEF91}" name="Sprint #" dataDxfId="36"/>
-    <tableColumn id="3" xr3:uid="{E1E9A0C6-E904-4487-B9B0-11F8437F3DE0}" name="Sprint Start Date" dataDxfId="35"/>
-    <tableColumn id="4" xr3:uid="{C076F8C4-FDC8-4B62-855E-EDC6AC919528}" name="Sprint End Date" dataDxfId="34"/>
-    <tableColumn id="5" xr3:uid="{C9049BE7-BE09-42FC-95C1-E4947EEB4DAB}" name="Team Member Name" dataDxfId="33"/>
-    <tableColumn id="6" xr3:uid="{37E2E003-1CAC-42C6-A710-5DA83CE6AB94}" name="Start Doing" dataDxfId="32"/>
-    <tableColumn id="7" xr3:uid="{87F5607B-1DE9-4A46-BAB3-938BEEF2DE7F}" name="Stop Doing" dataDxfId="31"/>
-    <tableColumn id="8" xr3:uid="{FD428EED-B9F8-492B-B036-C2D267B58319}" name="Continue Doing" dataDxfId="30"/>
-    <tableColumn id="9" xr3:uid="{D5391053-2B54-4AB6-A61E-32BD3695630D}" name="Action Taken" dataDxfId="29"/>
+    <tableColumn id="1" xr3:uid="{5067D2B2-12AA-405A-933B-6C20894EBC6A}" name="SL" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{3CF8F107-5072-4DD1-B8D5-E78DCE2BEF91}" name="Sprint #" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{E1E9A0C6-E904-4487-B9B0-11F8437F3DE0}" name="Sprint Start Date" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{C076F8C4-FDC8-4B62-855E-EDC6AC919528}" name="Sprint End Date" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{C9049BE7-BE09-42FC-95C1-E4947EEB4DAB}" name="Team Member Name" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{37E2E003-1CAC-42C6-A710-5DA83CE6AB94}" name="Start Doing" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{87F5607B-1DE9-4A46-BAB3-938BEEF2DE7F}" name="Stop Doing" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{FD428EED-B9F8-492B-B036-C2D267B58319}" name="Continue Doing" dataDxfId="1"/>
+    <tableColumn id="9" xr3:uid="{D5391053-2B54-4AB6-A61E-32BD3695630D}" name="Action Taken" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium5" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1303,7 +1306,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29761333-BC20-414B-8551-AD1183CCCEF8}">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="63" zoomScaleNormal="63" workbookViewId="0">
+    <sheetView zoomScale="63" zoomScaleNormal="63" workbookViewId="0">
       <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
@@ -1645,8 +1648,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{383E0E56-BBBC-4EE4-B70C-E6A3A3BC79E5}">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:I12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1716,7 +1719,7 @@
         <v>13</v>
       </c>
       <c r="I2" s="10">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -1745,7 +1748,7 @@
         <v>13</v>
       </c>
       <c r="I3" s="10">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -1774,7 +1777,7 @@
         <v>13</v>
       </c>
       <c r="I4" s="10">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -1803,7 +1806,7 @@
         <v>13</v>
       </c>
       <c r="I5" s="10">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -1832,7 +1835,7 @@
         <v>13</v>
       </c>
       <c r="I6" s="10">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
@@ -1861,7 +1864,7 @@
         <v>13</v>
       </c>
       <c r="I7" s="10">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
@@ -1890,7 +1893,7 @@
         <v>13</v>
       </c>
       <c r="I8" s="10">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
@@ -1919,7 +1922,7 @@
         <v>13</v>
       </c>
       <c r="I9" s="10">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
@@ -1977,7 +1980,7 @@
         <v>13</v>
       </c>
       <c r="I11" s="10">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
@@ -1993,7 +1996,9 @@
       <c r="D12" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="E12" s="11"/>
+      <c r="E12" s="11" t="s">
+        <v>135</v>
+      </c>
       <c r="F12" s="10" t="s">
         <v>134</v>
       </c>
